--- a/biology/Botanique/Cichorieae/Cichorieae.xlsx
+++ b/biology/Botanique/Cichorieae/Cichorieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cichorieae sont une tribu de plantes à fleurs dicotylédones de la famille des Astéracées.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des sous-tribus
-Selon NCBI  (30 oct. 2010)[1] :
+          <t>Liste des sous-tribus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 oct. 2010) :
 sous-tribu des Chondrillinae
 sous-tribu des Cichoriinae
 sous-tribu des Crepidinae
@@ -526,9 +543,43 @@
 sous-tribu des Microseridinae
 sous-tribu des Scolyminae
 sous-tribu des Scorzonerinae
-sous-tribu des Warioniinae
-Synonymes
-Lactuceae Cass. in J. Phys. Chim. Hist. Nat. Arts 88: 151. (1819)
+sous-tribu des Warioniinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cichorieae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cichorieae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lactuceae Cass. in J. Phys. Chim. Hist. Nat. Arts 88: 151. (1819)
 Catanancheae D. Don (1829)
 Crepideae Lindl. (1829)
 Hieracieae D. Don (1829)
